--- a/backend/income_details.xlsx
+++ b/backend/income_details.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,91 +418,49 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Freelance Work</v>
+        <v>Pocket money</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>5250</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-06-15</v>
+        <v>2025-06-01</v>
       </c>
       <c r="D2" t="str">
-        <v>Payment received for freelance web development project</v>
+        <v>Monthly pocket money</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Freelance Work</v>
+        <v>salary</v>
       </c>
       <c r="B3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-06-15</v>
+        <v>2025-06-01</v>
       </c>
       <c r="D3" t="str">
-        <v>Payment received for freelance web development project</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Freelance Work</v>
+        <v>Groceries</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="C4" t="str">
-        <v>2025-06-15</v>
+        <v>2025-05-23</v>
       </c>
       <c r="D4" t="str">
-        <v>Payment received for freelance web development project</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Freelance Work</v>
-      </c>
-      <c r="B5">
-        <v>5000</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2025-06-15</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Payment received for freelance web development project</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Freelance Work</v>
-      </c>
-      <c r="B6">
-        <v>5000</v>
-      </c>
-      <c r="C6" t="str">
-        <v>2025-06-15</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Payment received for freelance web development project</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Freelance Work</v>
-      </c>
-      <c r="B7">
-        <v>5000</v>
-      </c>
-      <c r="C7" t="str">
-        <v>2025-06-15</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Payment received for freelance web development project</v>
+        <v>Monthly grocery shopping</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>